--- a/temp_doc/PESERTA UJIAN MOODLE.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F87502-BAC5-F943-AF7B-1BC46B556E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E214737C-5FB7-D243-B743-51530ED01684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
   <si>
     <t>username</t>
   </si>
@@ -34,41 +47,446 @@
     <t>email</t>
   </si>
   <si>
-    <t>student1</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>s1@example.com</t>
-  </si>
-  <si>
-    <t>student2</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>s2@example.com</t>
-  </si>
-  <si>
-    <t>student3</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>s3@example.com</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>cohort1</t>
+  </si>
+  <si>
+    <t>ADAM KHAIRY YASHA</t>
+  </si>
+  <si>
+    <t>ADAM MAULANA</t>
+  </si>
+  <si>
+    <t>ADITYA KRISNA DJAJA</t>
+  </si>
+  <si>
+    <t>ADITYA TANGGUH PRAMANA PUTRA</t>
+  </si>
+  <si>
+    <t>ADRIAN SANJAYA</t>
+  </si>
+  <si>
+    <t>ALIF APRILIYANSAH</t>
+  </si>
+  <si>
+    <t>CARRYN FEBRIANTY</t>
+  </si>
+  <si>
+    <t>CHRISTIAN JOSEPHINE</t>
+  </si>
+  <si>
+    <t>DAENG DALLE</t>
+  </si>
+  <si>
+    <t>DIRA PUTRI RAHMASARI</t>
+  </si>
+  <si>
+    <t>DJENAR MAHESA PUTRI</t>
+  </si>
+  <si>
+    <t>DWIKI JULIYANA</t>
+  </si>
+  <si>
+    <t>EKKLESIA FIRDA LIANA</t>
+  </si>
+  <si>
+    <t>ERIYANI RAHMA</t>
+  </si>
+  <si>
+    <t>EVAN AGUSTIAZ EFENDI</t>
+  </si>
+  <si>
+    <t>FAHRI AFRIANSYAH</t>
+  </si>
+  <si>
+    <t>FAHRI SEPTIAWAN</t>
+  </si>
+  <si>
+    <t>FARREL DWI IRWANTO</t>
+  </si>
+  <si>
+    <t>FITRI WULANDARI</t>
+  </si>
+  <si>
+    <t>FITRIA ROBBY ANI</t>
+  </si>
+  <si>
+    <t>IQBAL HABIBALLAH</t>
+  </si>
+  <si>
+    <t>KIKI CAHYONO</t>
+  </si>
+  <si>
+    <t>LEON ALEVI GUSTAN</t>
+  </si>
+  <si>
+    <t>MARCHO SIMON PETRUS BANU</t>
+  </si>
+  <si>
+    <t>MAULIDHA NURIZATIN</t>
+  </si>
+  <si>
+    <t>MAULINDA DEWI</t>
+  </si>
+  <si>
+    <t>MUHAMAD ALFIAN</t>
+  </si>
+  <si>
+    <t>MUHAMAD ANGGA SURYA SAPUTRA</t>
+  </si>
+  <si>
+    <t>MUHAMAD BIAN NURHIKMAH</t>
+  </si>
+  <si>
+    <t>MUHAMAD RIDWAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ALFATH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD KHAIRI EL FUAD</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ROSYAD PURNOMO</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ZIDANE ALI CANTONA</t>
+  </si>
+  <si>
+    <t>NAILA ENJELITA</t>
+  </si>
+  <si>
+    <t>NATHANAEL MOSES SETIADY</t>
+  </si>
+  <si>
+    <t>NURAINI</t>
+  </si>
+  <si>
+    <t>RIDO SAPUTRO</t>
+  </si>
+  <si>
+    <t>SHANDITYA ALVARO</t>
+  </si>
+  <si>
+    <t>SISKA HANDAYANI</t>
+  </si>
+  <si>
+    <t>SUCI CANTIKA RAMADANI</t>
+  </si>
+  <si>
+    <t>SULLY</t>
+  </si>
+  <si>
+    <t>TRI AWALUDIN</t>
+  </si>
+  <si>
+    <t>UKASAH AL MUQRI ASSADUSI</t>
+  </si>
+  <si>
+    <t>VIOLA SASIKIRANA</t>
+  </si>
+  <si>
+    <t>ZAHRA APRILIA FAADHILAH</t>
+  </si>
+  <si>
+    <t>ZAKIRAH THALITA ZAHRAH</t>
+  </si>
+  <si>
+    <t>X DKV</t>
+  </si>
+  <si>
+    <t>S-239006@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239007@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239008@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239009@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239010@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239011@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239012@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239013@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239014@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239015@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239016@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239017@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239018@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239019@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-209020@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239021@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239022@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239023@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239025@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239024@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239026@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239027@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-228637@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239029@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239030@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239031@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239033@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239028@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239034@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239035@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239036@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239037@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239032@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239039@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239040@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239041@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239042@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239043@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239044@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239038@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239045@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239046@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239047@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239048@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239049@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239050@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>S-239051@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>K01030098006</t>
+  </si>
+  <si>
+    <t>K01030098007</t>
+  </si>
+  <si>
+    <t>K01030098008</t>
+  </si>
+  <si>
+    <t>K01030098009</t>
+  </si>
+  <si>
+    <t>K01030098010</t>
+  </si>
+  <si>
+    <t>K01030098011</t>
+  </si>
+  <si>
+    <t>K01030098012</t>
+  </si>
+  <si>
+    <t>K01030098013</t>
+  </si>
+  <si>
+    <t>K01030098014</t>
+  </si>
+  <si>
+    <t>K01030098015</t>
+  </si>
+  <si>
+    <t>K01030098016</t>
+  </si>
+  <si>
+    <t>K01030098017</t>
+  </si>
+  <si>
+    <t>K01030098018</t>
+  </si>
+  <si>
+    <t>K01030098019</t>
+  </si>
+  <si>
+    <t>K01030098020</t>
+  </si>
+  <si>
+    <t>K01030098021</t>
+  </si>
+  <si>
+    <t>K01030098022</t>
+  </si>
+  <si>
+    <t>K01030098023</t>
+  </si>
+  <si>
+    <t>K01030098025</t>
+  </si>
+  <si>
+    <t>K01030098024</t>
+  </si>
+  <si>
+    <t>K01030098026</t>
+  </si>
+  <si>
+    <t>K01030098027</t>
+  </si>
+  <si>
+    <t>K01030098637</t>
+  </si>
+  <si>
+    <t>K01030098029</t>
+  </si>
+  <si>
+    <t>K01030098030</t>
+  </si>
+  <si>
+    <t>K01030098031</t>
+  </si>
+  <si>
+    <t>K01030098033</t>
+  </si>
+  <si>
+    <t>K01030098028</t>
+  </si>
+  <si>
+    <t>K01030098034</t>
+  </si>
+  <si>
+    <t>K01030098035</t>
+  </si>
+  <si>
+    <t>K01030098036</t>
+  </si>
+  <si>
+    <t>K01030098037</t>
+  </si>
+  <si>
+    <t>K01030098032</t>
+  </si>
+  <si>
+    <t>K01030098039</t>
+  </si>
+  <si>
+    <t>K01030098040</t>
+  </si>
+  <si>
+    <t>K01030098041</t>
+  </si>
+  <si>
+    <t>K01030098042</t>
+  </si>
+  <si>
+    <t>K01030098043</t>
+  </si>
+  <si>
+    <t>K01030098044</t>
+  </si>
+  <si>
+    <t>K01030098038</t>
+  </si>
+  <si>
+    <t>K01030098045</t>
+  </si>
+  <si>
+    <t>K01030098046</t>
+  </si>
+  <si>
+    <t>K01030098047</t>
+  </si>
+  <si>
+    <t>K01030098048</t>
+  </si>
+  <si>
+    <t>K01030098049</t>
+  </si>
+  <si>
+    <t>K01030098050</t>
+  </si>
+  <si>
+    <t>K01030098051</t>
+  </si>
+  <si>
+    <t>UH1XDKV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +621,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -385,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -500,6 +924,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -545,8 +984,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,67 +1341,978 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/PESERTA UJIAN MOODLE.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cbt2.0admin\temp_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E214737C-5FB7-D243-B743-51530ED01684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1F7B2-3CFF-44DE-9416-584C19097571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
   <si>
     <t>username</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>UH1XDKV</t>
+  </si>
+  <si>
+    <t>(X DKV)</t>
   </si>
 </sst>
 </file>
@@ -989,48 +992,48 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Aksen1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Aksen2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Aksen3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Aksen4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Aksen5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Aksen6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Aksen1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Aksen2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Aksen3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Aksen4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Aksen5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Aksen6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Aksen1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Aksen2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Aksen3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Aksen4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Aksen5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Aksen6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Aksen1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Aksen2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Aksen3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Aksen4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Aksen5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Aksen6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Baik" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buruk" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Catatan" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Judul" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Judul 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Judul 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Judul 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Judul 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Keluaran" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Masukan" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Netral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Perhitungan" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Sel Periksa" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Sel Tertaut" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Teks Penjelasan" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Teks Peringatan" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1046,7 +1049,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1344,18 +1347,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
@@ -1395,7 +1398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -1415,7 +1418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -1435,7 +1438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
@@ -1455,7 +1458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -1475,7 +1478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -1495,7 +1498,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
         <v>60</v>
@@ -1515,7 +1518,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -1535,7 +1538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
@@ -1555,7 +1558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
         <v>63</v>
@@ -1575,7 +1578,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
         <v>64</v>
@@ -1595,7 +1598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
         <v>65</v>
@@ -1615,7 +1618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
@@ -1635,7 +1638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
@@ -1655,7 +1658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
         <v>68</v>
@@ -1675,7 +1678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
         <v>69</v>
@@ -1695,7 +1698,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
         <v>70</v>
@@ -1715,7 +1718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
         <v>71</v>
@@ -1735,7 +1738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
         <v>72</v>
@@ -1755,7 +1758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
         <v>73</v>
@@ -1775,7 +1778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
@@ -1795,7 +1798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
         <v>75</v>
@@ -1815,7 +1818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
         <v>76</v>
@@ -1835,7 +1838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -1855,7 +1858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
         <v>78</v>
@@ -1875,7 +1878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -1895,7 +1898,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
         <v>80</v>
@@ -1915,7 +1918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
         <v>81</v>
@@ -1935,7 +1938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
         <v>82</v>
@@ -1955,7 +1958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
         <v>83</v>
@@ -1975,7 +1978,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
         <v>84</v>
@@ -1995,7 +1998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>37</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
         <v>85</v>
@@ -2015,7 +2018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
         <v>86</v>
@@ -2035,7 +2038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
         <v>87</v>
@@ -2055,7 +2058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
         <v>88</v>
@@ -2075,7 +2078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>41</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
         <v>89</v>
@@ -2095,7 +2098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>42</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
         <v>90</v>
@@ -2115,7 +2118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>43</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
         <v>91</v>
@@ -2135,7 +2138,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>44</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
         <v>92</v>
@@ -2155,7 +2158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>140</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>45</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
         <v>93</v>
@@ -2175,7 +2178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>141</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>46</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
         <v>94</v>
@@ -2195,7 +2198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>47</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
         <v>95</v>
@@ -2215,7 +2218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
         <v>96</v>
@@ -2235,7 +2238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>49</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
         <v>97</v>
@@ -2255,7 +2258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>50</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
         <v>98</v>
@@ -2275,7 +2278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>51</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
         <v>99</v>
@@ -2295,7 +2298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>52</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
         <v>100</v>

--- a/temp_doc/PESERTA UJIAN MOODLE.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cbt2.0admin\temp_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1F7B2-3CFF-44DE-9416-584C19097571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CA85C0-7D0F-3B4C-A719-9FCD09E101FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="195">
   <si>
     <t>username</t>
   </si>
@@ -62,18 +62,12 @@
     <t>ADITYA KRISNA DJAJA</t>
   </si>
   <si>
-    <t>ADITYA TANGGUH PRAMANA PUTRA</t>
-  </si>
-  <si>
     <t>ADRIAN SANJAYA</t>
   </si>
   <si>
     <t>ALIF APRILIYANSAH</t>
   </si>
   <si>
-    <t>CARRYN FEBRIANTY</t>
-  </si>
-  <si>
     <t>CHRISTIAN JOSEPHINE</t>
   </si>
   <si>
@@ -83,15 +77,9 @@
     <t>DIRA PUTRI RAHMASARI</t>
   </si>
   <si>
-    <t>DJENAR MAHESA PUTRI</t>
-  </si>
-  <si>
     <t>DWIKI JULIYANA</t>
   </si>
   <si>
-    <t>EKKLESIA FIRDA LIANA</t>
-  </si>
-  <si>
     <t>ERIYANI RAHMA</t>
   </si>
   <si>
@@ -119,9 +107,6 @@
     <t>KIKI CAHYONO</t>
   </si>
   <si>
-    <t>LEON ALEVI GUSTAN</t>
-  </si>
-  <si>
     <t>MARCHO SIMON PETRUS BANU</t>
   </si>
   <si>
@@ -155,18 +140,12 @@
     <t>MUHAMMAD ZIDANE ALI CANTONA</t>
   </si>
   <si>
-    <t>NAILA ENJELITA</t>
-  </si>
-  <si>
     <t>NATHANAEL MOSES SETIADY</t>
   </si>
   <si>
     <t>NURAINI</t>
   </si>
   <si>
-    <t>RIDO SAPUTRO</t>
-  </si>
-  <si>
     <t>SHANDITYA ALVARO</t>
   </si>
   <si>
@@ -197,299 +176,455 @@
     <t>X DKV</t>
   </si>
   <si>
-    <t>S-239006@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239007@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239008@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239009@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239010@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239011@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239012@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239013@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239014@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239015@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239016@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239017@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239018@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239019@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-209020@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239021@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239022@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239023@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239025@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239024@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239026@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239027@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-228637@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239029@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239030@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239031@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239033@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239028@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239034@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239035@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239036@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239037@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239032@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239039@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239040@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239041@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239042@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239043@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239044@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239038@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239045@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239046@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239047@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239048@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239049@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239050@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>S-239051@smkth-jakbar.com</t>
-  </si>
-  <si>
-    <t>K01030098006</t>
-  </si>
-  <si>
-    <t>K01030098007</t>
-  </si>
-  <si>
-    <t>K01030098008</t>
-  </si>
-  <si>
-    <t>K01030098009</t>
-  </si>
-  <si>
-    <t>K01030098010</t>
-  </si>
-  <si>
-    <t>K01030098011</t>
-  </si>
-  <si>
-    <t>K01030098012</t>
-  </si>
-  <si>
-    <t>K01030098013</t>
-  </si>
-  <si>
-    <t>K01030098014</t>
-  </si>
-  <si>
-    <t>K01030098015</t>
-  </si>
-  <si>
-    <t>K01030098016</t>
-  </si>
-  <si>
-    <t>K01030098017</t>
-  </si>
-  <si>
-    <t>K01030098018</t>
-  </si>
-  <si>
-    <t>K01030098019</t>
-  </si>
-  <si>
-    <t>K01030098020</t>
-  </si>
-  <si>
-    <t>K01030098021</t>
-  </si>
-  <si>
-    <t>K01030098022</t>
-  </si>
-  <si>
-    <t>K01030098023</t>
-  </si>
-  <si>
-    <t>K01030098025</t>
-  </si>
-  <si>
-    <t>K01030098024</t>
-  </si>
-  <si>
-    <t>K01030098026</t>
-  </si>
-  <si>
-    <t>K01030098027</t>
-  </si>
-  <si>
-    <t>K01030098637</t>
-  </si>
-  <si>
-    <t>K01030098029</t>
-  </si>
-  <si>
-    <t>K01030098030</t>
-  </si>
-  <si>
-    <t>K01030098031</t>
-  </si>
-  <si>
-    <t>K01030098033</t>
-  </si>
-  <si>
-    <t>K01030098028</t>
-  </si>
-  <si>
-    <t>K01030098034</t>
-  </si>
-  <si>
-    <t>K01030098035</t>
-  </si>
-  <si>
-    <t>K01030098036</t>
-  </si>
-  <si>
-    <t>K01030098037</t>
-  </si>
-  <si>
-    <t>K01030098032</t>
-  </si>
-  <si>
-    <t>K01030098039</t>
-  </si>
-  <si>
-    <t>K01030098040</t>
-  </si>
-  <si>
-    <t>K01030098041</t>
-  </si>
-  <si>
-    <t>K01030098042</t>
-  </si>
-  <si>
-    <t>K01030098043</t>
-  </si>
-  <si>
-    <t>K01030098044</t>
-  </si>
-  <si>
-    <t>K01030098038</t>
-  </si>
-  <si>
-    <t>K01030098045</t>
-  </si>
-  <si>
-    <t>K01030098046</t>
-  </si>
-  <si>
-    <t>K01030098047</t>
-  </si>
-  <si>
-    <t>K01030098048</t>
-  </si>
-  <si>
-    <t>K01030098049</t>
-  </si>
-  <si>
-    <t>K01030098050</t>
-  </si>
-  <si>
-    <t>K01030098051</t>
-  </si>
-  <si>
     <t>UH1XDKV</t>
   </si>
   <si>
     <t>(X DKV)</t>
+  </si>
+  <si>
+    <t>Aditya Tangguh Pramana Putra</t>
+  </si>
+  <si>
+    <t>Carryn Febrianty</t>
+  </si>
+  <si>
+    <t>Djenar Mahesa Putri</t>
+  </si>
+  <si>
+    <t>Ekklesia Firda Liana</t>
+  </si>
+  <si>
+    <t>Leon Alevi Gustan</t>
+  </si>
+  <si>
+    <t>Naila Enjelita</t>
+  </si>
+  <si>
+    <t>Rido Saputro</t>
+  </si>
+  <si>
+    <t>ADE SETYA CANDRA</t>
+  </si>
+  <si>
+    <t>XI DKV</t>
+  </si>
+  <si>
+    <t>ARIANSYAH</t>
+  </si>
+  <si>
+    <t>ARYA SUBAGJA</t>
+  </si>
+  <si>
+    <t>DIAN NOVITA SARI</t>
+  </si>
+  <si>
+    <t>DIDA PERKASA</t>
+  </si>
+  <si>
+    <t>EGHA PATRIANSYAH</t>
+  </si>
+  <si>
+    <t>Esmeralda Valencia Widjaja</t>
+  </si>
+  <si>
+    <t>Fahira Ana Putri</t>
+  </si>
+  <si>
+    <t>FARHAN SETYAWAN</t>
+  </si>
+  <si>
+    <t>GITA INDAH SABANA</t>
+  </si>
+  <si>
+    <t>IBNU ADITYA ADNAN</t>
+  </si>
+  <si>
+    <t>IKHSAN BAYU NUGROHO</t>
+  </si>
+  <si>
+    <t>ISMAIL AHMAD SAHDAD</t>
+  </si>
+  <si>
+    <t>ISTAUFIRIN</t>
+  </si>
+  <si>
+    <t>IVAN FERDINAN</t>
+  </si>
+  <si>
+    <t>JEFRY HIDAYATULLAH</t>
+  </si>
+  <si>
+    <t>JONI</t>
+  </si>
+  <si>
+    <t>JUSTIN RAFAEL</t>
+  </si>
+  <si>
+    <t>LANANG SINGGIH PANGESTU</t>
+  </si>
+  <si>
+    <t>MARCELL RAKASE</t>
+  </si>
+  <si>
+    <t>MARTIN AL FATHONI</t>
+  </si>
+  <si>
+    <t>Mixcel Dimas Juniawan</t>
+  </si>
+  <si>
+    <t>MOSES DOLVIN MAELISSA</t>
+  </si>
+  <si>
+    <t>MUHAMAD RIKO SYAHPUTRA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NURSHAM AHMADINEJAD</t>
+  </si>
+  <si>
+    <t>MUTIA VARA DILLA</t>
+  </si>
+  <si>
+    <t>NADIA ARDHELIA PUTRI</t>
+  </si>
+  <si>
+    <t>NAFI'AJI VANOROSSI</t>
+  </si>
+  <si>
+    <t>NOFIA INDRIANI</t>
+  </si>
+  <si>
+    <t>RAFFAEL EDGINA</t>
+  </si>
+  <si>
+    <t>RAFI ACHMAD APRILIANDI</t>
+  </si>
+  <si>
+    <t>RAFKA AFRIZAL MUTTAQIN</t>
+  </si>
+  <si>
+    <t>RAIHAN DWI FEBRIYANTO</t>
+  </si>
+  <si>
+    <t>RAVI HAFIZ ARDIANSYAH</t>
+  </si>
+  <si>
+    <t>REGA JUVENSIA SAPUTRA</t>
+  </si>
+  <si>
+    <t>REHAN JULIANTO</t>
+  </si>
+  <si>
+    <t>RIFAT AKMAL</t>
+  </si>
+  <si>
+    <t>Rio Ardiansyah</t>
+  </si>
+  <si>
+    <t>RIZKY DIAN PERMANA</t>
+  </si>
+  <si>
+    <t>RIZQI MUH AKBAR</t>
+  </si>
+  <si>
+    <t>RUDIYANSAH</t>
+  </si>
+  <si>
+    <t>TUBAGUS RAIHAN RAHMATULLOH HIDAYAT</t>
+  </si>
+  <si>
+    <t>VERDINAN WILLIAM HOLLE</t>
+  </si>
+  <si>
+    <t>Zaskia Devina Rosalina</t>
+  </si>
+  <si>
+    <t>K01030098101</t>
+  </si>
+  <si>
+    <t>K01030098102</t>
+  </si>
+  <si>
+    <t>K01030098103</t>
+  </si>
+  <si>
+    <t>K01030098104</t>
+  </si>
+  <si>
+    <t>K01030098105</t>
+  </si>
+  <si>
+    <t>K01030098106</t>
+  </si>
+  <si>
+    <t>K01030098107</t>
+  </si>
+  <si>
+    <t>K01030098108</t>
+  </si>
+  <si>
+    <t>K01030098109</t>
+  </si>
+  <si>
+    <t>K01030098110</t>
+  </si>
+  <si>
+    <t>K01030098111</t>
+  </si>
+  <si>
+    <t>K01030098112</t>
+  </si>
+  <si>
+    <t>K01030098113</t>
+  </si>
+  <si>
+    <t>K01030098114</t>
+  </si>
+  <si>
+    <t>K01030098115</t>
+  </si>
+  <si>
+    <t>K01030098116</t>
+  </si>
+  <si>
+    <t>K01030098117</t>
+  </si>
+  <si>
+    <t>K01030098118</t>
+  </si>
+  <si>
+    <t>K01030098119</t>
+  </si>
+  <si>
+    <t>K01030098120</t>
+  </si>
+  <si>
+    <t>K01030098121</t>
+  </si>
+  <si>
+    <t>K01030098122</t>
+  </si>
+  <si>
+    <t>K01030098123</t>
+  </si>
+  <si>
+    <t>K01030098124</t>
+  </si>
+  <si>
+    <t>K01030098125</t>
+  </si>
+  <si>
+    <t>K01030098126</t>
+  </si>
+  <si>
+    <t>K01030098127</t>
+  </si>
+  <si>
+    <t>K01030098128</t>
+  </si>
+  <si>
+    <t>K01030098129</t>
+  </si>
+  <si>
+    <t>K01030098130</t>
+  </si>
+  <si>
+    <t>K01030098131</t>
+  </si>
+  <si>
+    <t>K01030098132</t>
+  </si>
+  <si>
+    <t>K01030098133</t>
+  </si>
+  <si>
+    <t>K01030098134</t>
+  </si>
+  <si>
+    <t>K01030098135</t>
+  </si>
+  <si>
+    <t>K01030098136</t>
+  </si>
+  <si>
+    <t>K01030098137</t>
+  </si>
+  <si>
+    <t>K01030098138</t>
+  </si>
+  <si>
+    <t>K01030098139</t>
+  </si>
+  <si>
+    <t>K01030098140</t>
+  </si>
+  <si>
+    <t>K01030098141</t>
+  </si>
+  <si>
+    <t>K01030098142</t>
+  </si>
+  <si>
+    <t>K01030098143</t>
+  </si>
+  <si>
+    <t>K01030098144</t>
+  </si>
+  <si>
+    <t>K01030098145</t>
+  </si>
+  <si>
+    <t>K01030098146</t>
+  </si>
+  <si>
+    <t>K01030098147</t>
+  </si>
+  <si>
+    <t>K01030098148</t>
+  </si>
+  <si>
+    <t>K01030098149</t>
+  </si>
+  <si>
+    <t>K01030098150</t>
+  </si>
+  <si>
+    <t>K01030098151</t>
+  </si>
+  <si>
+    <t>K01030098152</t>
+  </si>
+  <si>
+    <t>K01030098153</t>
+  </si>
+  <si>
+    <t>K01030098154</t>
+  </si>
+  <si>
+    <t>K01030098155</t>
+  </si>
+  <si>
+    <t>K01030098156</t>
+  </si>
+  <si>
+    <t>K01030098157</t>
+  </si>
+  <si>
+    <t>K01030098158</t>
+  </si>
+  <si>
+    <t>K01030098159</t>
+  </si>
+  <si>
+    <t>K01030098160</t>
+  </si>
+  <si>
+    <t>K01030098161</t>
+  </si>
+  <si>
+    <t>K01030098162</t>
+  </si>
+  <si>
+    <t>K01030098163</t>
+  </si>
+  <si>
+    <t>K01030098164</t>
+  </si>
+  <si>
+    <t>K01030098165</t>
+  </si>
+  <si>
+    <t>K01030098166</t>
+  </si>
+  <si>
+    <t>K01030098167</t>
+  </si>
+  <si>
+    <t>K01030098168</t>
+  </si>
+  <si>
+    <t>K01030098169</t>
+  </si>
+  <si>
+    <t>K01030098170</t>
+  </si>
+  <si>
+    <t>K01030098171</t>
+  </si>
+  <si>
+    <t>K01030098172</t>
+  </si>
+  <si>
+    <t>K01030098173</t>
+  </si>
+  <si>
+    <t>K01030098174</t>
+  </si>
+  <si>
+    <t>K01030098175</t>
+  </si>
+  <si>
+    <t>K01030098176</t>
+  </si>
+  <si>
+    <t>K01030098177</t>
+  </si>
+  <si>
+    <t>K01030098178</t>
+  </si>
+  <si>
+    <t>K01030098179</t>
+  </si>
+  <si>
+    <t>K01030098180</t>
+  </si>
+  <si>
+    <t>K01030098181</t>
+  </si>
+  <si>
+    <t>K01030098182</t>
+  </si>
+  <si>
+    <t>K01030098183</t>
+  </si>
+  <si>
+    <t>K01030098184</t>
+  </si>
+  <si>
+    <t>K01030098185</t>
+  </si>
+  <si>
+    <t>K01030098186</t>
+  </si>
+  <si>
+    <t>K01030098187</t>
+  </si>
+  <si>
+    <t>K01030098188</t>
+  </si>
+  <si>
+    <t>K01030098189</t>
+  </si>
+  <si>
+    <t>K01030098190</t>
+  </si>
+  <si>
+    <t>K01030098191</t>
+  </si>
+  <si>
+    <t>K01030098192</t>
+  </si>
+  <si>
+    <t>UH1XIDKV</t>
+  </si>
+  <si>
+    <t>(XI DKV)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -623,12 +758,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -812,7 +941,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -942,6 +1071,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -987,53 +1127,54 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Aksen1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Aksen1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Aksen2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Aksen3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Aksen4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Aksen5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Aksen6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Baik" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Buruk" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Catatan" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Judul" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Judul 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Judul 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Judul 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Judul 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Keluaran" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Masukan" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Netral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Perhitungan" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Sel Periksa" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Sel Tertaut" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Teks Penjelasan" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Teks Peringatan" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1049,7 +1190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1345,20 +1486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1378,944 +1519,1936 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(A2,"@smkth-jakbar.com")</f>
+        <v>K01030098101@smkth-jakbar.com</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">CONCATENATE(A3,"@smkth-jakbar.com")</f>
+        <v>K01030098102@smkth-jakbar.com</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098103@smkth-jakbar.com</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098104@smkth-jakbar.com</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098105@smkth-jakbar.com</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098106@smkth-jakbar.com</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098107@smkth-jakbar.com</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098108@smkth-jakbar.com</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098109@smkth-jakbar.com</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098110@smkth-jakbar.com</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098111@smkth-jakbar.com</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098112@smkth-jakbar.com</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
+        <v>48</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098113@smkth-jakbar.com</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098114@smkth-jakbar.com</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
+        <v>48</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098115@smkth-jakbar.com</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098116@smkth-jakbar.com</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
+        <v>48</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098117@smkth-jakbar.com</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098118@smkth-jakbar.com</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
+        <v>48</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098119@smkth-jakbar.com</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
+        <v>48</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098120@smkth-jakbar.com</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
+        <v>48</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098121@smkth-jakbar.com</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098122@smkth-jakbar.com</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
+        <v>48</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098123@smkth-jakbar.com</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" t="s">
-        <v>77</v>
+        <v>48</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098124@smkth-jakbar.com</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
+        <v>48</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098125@smkth-jakbar.com</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" t="s">
-        <v>79</v>
+        <v>48</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098126@smkth-jakbar.com</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098127@smkth-jakbar.com</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098128@smkth-jakbar.com</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
+        <v>48</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098129@smkth-jakbar.com</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" t="s">
-        <v>83</v>
+        <v>48</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098130@smkth-jakbar.com</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098131@smkth-jakbar.com</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
+        <v>48</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098132@smkth-jakbar.com</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098133@smkth-jakbar.com</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" t="s">
-        <v>87</v>
+        <v>48</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098134@smkth-jakbar.com</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" t="s">
-        <v>88</v>
+        <v>48</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098135@smkth-jakbar.com</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" t="s">
-        <v>89</v>
+        <v>48</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098136@smkth-jakbar.com</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" t="s">
-        <v>90</v>
+        <v>48</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098137@smkth-jakbar.com</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" t="s">
-        <v>91</v>
+        <v>48</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098138@smkth-jakbar.com</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098139@smkth-jakbar.com</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098140@smkth-jakbar.com</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" t="s">
-        <v>94</v>
+        <v>48</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098141@smkth-jakbar.com</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" t="s">
-        <v>95</v>
+        <v>48</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098142@smkth-jakbar.com</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098143@smkth-jakbar.com</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" t="s">
-        <v>97</v>
+        <v>48</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098144@smkth-jakbar.com</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" t="s">
-        <v>98</v>
+        <v>48</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098145@smkth-jakbar.com</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" t="s">
-        <v>99</v>
+        <v>48</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098146@smkth-jakbar.com</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>147</v>
       </c>
       <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098147@smkth-jakbar.com</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098148@smkth-jakbar.com</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>149</v>
       </c>
-      <c r="E48" t="s">
+      <c r="B50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098149@smkth-jakbar.com</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098150@smkth-jakbar.com</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098151@smkth-jakbar.com</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098152@smkth-jakbar.com</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098153@smkth-jakbar.com</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098154@smkth-jakbar.com</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098155@smkth-jakbar.com</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098156@smkth-jakbar.com</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098157@smkth-jakbar.com</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098158@smkth-jakbar.com</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098159@smkth-jakbar.com</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098160@smkth-jakbar.com</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098161@smkth-jakbar.com</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098162@smkth-jakbar.com</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098163@smkth-jakbar.com</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098164@smkth-jakbar.com</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>K01030098165@smkth-jakbar.com</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E93" si="1">CONCATENATE(A67,"@smkth-jakbar.com")</f>
+        <v>K01030098166@smkth-jakbar.com</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098167@smkth-jakbar.com</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098168@smkth-jakbar.com</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098169@smkth-jakbar.com</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098170@smkth-jakbar.com</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098171@smkth-jakbar.com</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098172@smkth-jakbar.com</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098173@smkth-jakbar.com</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098174@smkth-jakbar.com</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098175@smkth-jakbar.com</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098176@smkth-jakbar.com</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098177@smkth-jakbar.com</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098178@smkth-jakbar.com</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098179@smkth-jakbar.com</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098180@smkth-jakbar.com</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098181@smkth-jakbar.com</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098182@smkth-jakbar.com</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098183@smkth-jakbar.com</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098184@smkth-jakbar.com</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098185@smkth-jakbar.com</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098186@smkth-jakbar.com</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098187@smkth-jakbar.com</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098188@smkth-jakbar.com</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098189@smkth-jakbar.com</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098190@smkth-jakbar.com</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098191@smkth-jakbar.com</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="D93" t="s">
+        <v>194</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>K01030098192@smkth-jakbar.com</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/PESERTA UJIAN MOODLE.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C94229-C8A5-614C-AAC3-E089EEBD3E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56192D38-6172-5E48-9BBF-E79563EC0D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -6437,7 +6437,7 @@
     <t xml:space="preserve"> (XII TJKT 3)</t>
   </si>
   <si>
-    <t>SAS2023TH#</t>
+    <t>SAS2023TH*</t>
   </si>
 </sst>
 </file>
@@ -7288,7 +7288,7 @@
   <dimension ref="A1:F1045"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1040"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/temp_doc/PESERTA UJIAN MOODLE.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56192D38-6172-5E48-9BBF-E79563EC0D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEE5911-C93E-F848-BEF5-2F2881DF1F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -6437,7 +6437,7 @@
     <t xml:space="preserve"> (XII TJKT 3)</t>
   </si>
   <si>
-    <t>SAS2023TH*</t>
+    <t>SAS2023TH</t>
   </si>
 </sst>
 </file>
@@ -7288,7 +7288,7 @@
   <dimension ref="A1:F1045"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
